--- a/Konzept_Stressbewältigung.xlsx
+++ b/Konzept_Stressbewältigung.xlsx
@@ -2,13 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\norat\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\norat\OneDrive\Documents\Personal website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52EDBE0-D4B5-43E8-A91B-9DC37F3555CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8A7007-0AAD-445C-B951-BAF0209D4CE1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="127">
-  <si>
-    <t>PE Konzept</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="125">
   <si>
     <t>Ziele</t>
   </si>
@@ -57,12 +55,6 @@
   </si>
   <si>
     <t>TN Anzahl:</t>
-  </si>
-  <si>
-    <t>Trainer:</t>
-  </si>
-  <si>
-    <t>Kristin, Nora, Johanna</t>
   </si>
   <si>
     <t>Ziele:</t>
@@ -429,6 +421,9 @@
   </si>
   <si>
     <t>TN kennen sich untereinander aus bereits vollendeten Modulen</t>
+  </si>
+  <si>
+    <t>Trainingskonzept Personalentwicklung</t>
   </si>
 </sst>
 </file>
@@ -990,10 +985,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1032,7 +1027,7 @@
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1062,10 +1057,10 @@
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="1"/>
@@ -1094,10 +1089,10 @@
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1"/>
@@ -1126,10 +1121,10 @@
     <row r="5" spans="1:26" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="1"/>
@@ -1159,7 +1154,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="7"/>
       <c r="C6" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
@@ -1188,7 +1183,7 @@
     <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="9">
         <v>12</v>
@@ -1247,12 +1242,8 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>13</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1279,8 +1270,12 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1307,11 +1302,9 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="11" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1341,7 +1334,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1371,7 +1364,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1401,7 +1394,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1430,9 +1423,7 @@
     <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="11" t="s">
-        <v>18</v>
-      </c>
+      <c r="C15" s="11"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1460,7 +1451,7 @@
     <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1516,7 +1507,7 @@
     <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1544,7 +1535,7 @@
     <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1681,7 +1672,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="12.75">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -29037,34 +29028,6 @@
       <c r="Y1000" s="1"/>
       <c r="Z1000" s="1"/>
     </row>
-    <row r="1001" spans="1:26" ht="12.75">
-      <c r="A1001" s="1"/>
-      <c r="B1001" s="1"/>
-      <c r="C1001" s="1"/>
-      <c r="D1001" s="1"/>
-      <c r="E1001" s="1"/>
-      <c r="F1001" s="1"/>
-      <c r="G1001" s="1"/>
-      <c r="H1001" s="1"/>
-      <c r="I1001" s="1"/>
-      <c r="J1001" s="1"/>
-      <c r="K1001" s="1"/>
-      <c r="L1001" s="1"/>
-      <c r="M1001" s="1"/>
-      <c r="N1001" s="1"/>
-      <c r="O1001" s="1"/>
-      <c r="P1001" s="1"/>
-      <c r="Q1001" s="1"/>
-      <c r="R1001" s="1"/>
-      <c r="S1001" s="1"/>
-      <c r="T1001" s="1"/>
-      <c r="U1001" s="1"/>
-      <c r="V1001" s="1"/>
-      <c r="W1001" s="1"/>
-      <c r="X1001" s="1"/>
-      <c r="Y1001" s="1"/>
-      <c r="Z1001" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29091,76 +29054,76 @@
     <col min="9" max="9" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="15">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="2"/>
       <c r="B6" s="33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
@@ -29170,7 +29133,7 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -29181,31 +29144,31 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="2"/>
       <c r="B8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="F8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="G8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="I8" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1">
@@ -29213,25 +29176,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="G9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="H9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="I9" s="20" t="s">
         <v>30</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1">
@@ -29239,25 +29202,25 @@
         <v>2</v>
       </c>
       <c r="C10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="G10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>39</v>
-      </c>
       <c r="I10" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1">
@@ -29265,25 +29228,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="G11" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="H11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="I11" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1">
@@ -29291,25 +29254,25 @@
         <v>4</v>
       </c>
       <c r="C12" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="G12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="H12" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="I12" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1">
@@ -29317,13 +29280,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="23"/>
@@ -29335,25 +29298,25 @@
         <v>6</v>
       </c>
       <c r="C14" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="H14" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="I14" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
@@ -29361,25 +29324,25 @@
         <v>7</v>
       </c>
       <c r="C15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="G15" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="H15" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="I15" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
@@ -29387,25 +29350,25 @@
         <v>8</v>
       </c>
       <c r="C16" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="G16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="H16" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>75</v>
-      </c>
       <c r="I16" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="15.75" customHeight="1">
@@ -29413,13 +29376,13 @@
         <v>9</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -29431,25 +29394,25 @@
         <v>10</v>
       </c>
       <c r="C18" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>82</v>
-      </c>
       <c r="H18" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15.75" customHeight="1">
@@ -29457,25 +29420,25 @@
         <v>11</v>
       </c>
       <c r="C19" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="G19" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>87</v>
-      </c>
       <c r="H19" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="15.75" customHeight="1">
@@ -29483,25 +29446,25 @@
         <v>12</v>
       </c>
       <c r="C20" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="G20" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="H20" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="I20" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1">
@@ -29509,25 +29472,25 @@
         <v>13</v>
       </c>
       <c r="C21" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="G21" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="H21" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="I21" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="15.75" customHeight="1">
@@ -29535,13 +29498,13 @@
         <v>14</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="23"/>
@@ -29553,25 +29516,25 @@
         <v>15</v>
       </c>
       <c r="C23" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>106</v>
-      </c>
       <c r="H23" s="27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="15.75" customHeight="1">
@@ -29579,25 +29542,25 @@
         <v>16</v>
       </c>
       <c r="C24" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="G24" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>112</v>
-      </c>
       <c r="H24" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="12.75">
@@ -29605,13 +29568,13 @@
         <v>17</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="21"/>
@@ -29623,25 +29586,25 @@
         <v>18</v>
       </c>
       <c r="C26" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="18" t="s">
-        <v>119</v>
-      </c>
       <c r="H26" s="18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="89.25">
@@ -29649,21 +29612,21 @@
         <v>19</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F27" s="29"/>
       <c r="G27" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="12.75">
@@ -29675,7 +29638,7 @@
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
